--- a/Plotting/production_shares_ammonia_Scope1-2.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118399.9999999854</v>
+        <v>-3.912214467726298e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>118365.5705865929</v>
+        <v>2664.798010691252</v>
       </c>
       <c r="D4" t="n">
-        <v>117630.122935619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1065599.999999881</v>
+        <v>35238095.23809128</v>
       </c>
       <c r="C5" t="n">
-        <v>1059194.966100254</v>
+        <v>4630783.093411878</v>
       </c>
       <c r="D5" t="n">
-        <v>1058671.106420491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.409543859914304e-08</v>
+        <v>-2.522017896953197e-07</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.346618889584875e-10</v>
+        <v>2.404676588544419e-09</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -639,6 +639,54 @@
       </c>
       <c r="D12" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Electrification + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8.923596138608058e-07</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9428.791630345906</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.114406099842145e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock with CC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16384990.04349792</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28007172.12752622</v>
       </c>
     </row>
   </sheetData>

--- a/Plotting/production_shares_ammonia_Scope1-2.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-2.xlsx
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.912214467726298e-08</v>
+        <v>1184000</v>
       </c>
       <c r="C4" t="n">
-        <v>2664.798010691252</v>
+        <v>4809.272901518247</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35238095.23809128</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4630783.093411878</v>
+        <v>1175483.317908107</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.522017896953197e-07</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.404676588544419e-09</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1180440.996675308</v>
       </c>
     </row>
     <row r="8">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.923596138608058e-07</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9428.791630345906</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.114406099842145e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>16384990.04349792</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>28007172.12752622</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Plotting/production_shares_ammonia_Scope1-2.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -507,9 +551,27 @@
         <v>1184000</v>
       </c>
       <c r="C4" t="n">
-        <v>4809.272901518247</v>
+        <v>2625.168436700786</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1183999.999999789</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1184000.000000012</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -523,9 +585,27 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1175483.317908107</v>
+        <v>1177664.151661842</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -544,6 +624,24 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>6.977175300198235e-07</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1181738.26257592</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.747791622340428e-07</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1181738.895756663</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -558,7 +656,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1180440.996675308</v>
+        <v>1180474.661760693</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.113276659554965e-08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1183903.89879729</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-2.758638878031571e-08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1183911.436787312</v>
       </c>
     </row>
     <row r="8">
@@ -576,6 +692,24 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -592,6 +726,24 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -608,6 +760,24 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -624,6 +794,24 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -640,6 +828,24 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -656,6 +862,24 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -672,6 +896,24 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -688,10 +930,30 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/production_shares_ammonia_Scope1-2.xlsx
+++ b/Plotting/production_shares_ammonia_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,13 @@
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -540,6 +547,21 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -557,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1183999.999999789</v>
+        <v>1184000.000000019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -566,12 +588,21 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1184000.000000012</v>
+        <v>1183999.999999995</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1184000.00000003</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +639,15 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,21 +665,30 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.977175300198235e-07</v>
+        <v>1.80409352167688e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>1181738.26257592</v>
+        <v>1181739.221044932</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>8.747791622340428e-07</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1181738.895756663</v>
+        <v>1181734.682806534</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1181739.385345381</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -659,22 +708,31 @@
         <v>1180474.661760693</v>
       </c>
       <c r="E7" t="n">
-        <v>2.113276659554965e-08</v>
+        <v>1.979831757394561e-10</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1183903.89879729</v>
+        <v>1183984.965423797</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.758638878031571e-08</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1183911.436787312</v>
+        <v>1183896.153265644</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1183897.260867802</v>
       </c>
     </row>
     <row r="8">
@@ -710,6 +768,15 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +811,15 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -778,6 +854,15 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -812,6 +897,15 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -846,6 +940,15 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -880,6 +983,15 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -914,6 +1026,15 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -948,12 +1069,22 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
